--- a/Catalytic Reactor/CatalyticReactor.xlsx
+++ b/Catalytic Reactor/CatalyticReactor.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Developer\Matlab Projects\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Developer\Matlab Projects\Catalytic Reactor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{995CB1F9-4EC2-4DE6-8EC0-2423F0352C00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{093FB77B-0555-41F6-8906-F7660BD06E21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{B0071C8E-C3AE-4A06-835F-78E2C6848C28}"/>
   </bookViews>
   <sheets>
     <sheet name="catalyticReactor" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">catalyticReactor!$H$6:$H$153</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">catalyticReactor!$H$6:$H$153</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -2349,6 +2350,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Sl.</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> No.</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2411,6 +2472,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Reaction Rate</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2449,6 +2565,1391 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="562097295"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="tr"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.80984953709305085"/>
+          <c:y val="0.90080885483184336"/>
+          <c:w val="0.16720434530809647"/>
+          <c:h val="5.74716666163856E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>catalyticReactor!$V$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Predicted Reaction rate</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>catalyticReactor!$S$6:$S$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>catalyticReactor!$V$6:$V$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>34.382266141222502</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>39.464474111486702</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>47.781385320625297</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>56.799261446387199</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>65.911147192466103</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>76.147060814411304</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>86.286985639505602</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>92.495118829047996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>93.194295935178303</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90.788905353802605</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-97D1-4CCC-A09B-29E5E2A9FC0D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1186102511"/>
+        <c:axId val="1184970735"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1186102511"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Predicted Reaction rate</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1184970735"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1184970735"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="800"/>
+                  <a:t>PH2 Partial pressure of hydrogen mm Hg</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="3.0555512584502575E-2"/>
+              <c:y val="0.19276836686215409"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1186102511"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>catalyticReactor!$V$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Predicted Reaction rate</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>catalyticReactor!$AA$6:$AA$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>catalyticReactor!$AC$6:$AC$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>38.298098347317499</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42.034333565408701</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42.064558481311103</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41.372401682835402</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>28.078030319518401</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-6.3791723254903498</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-11.440856166767899</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-11.8768891038258</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-15.4475117128574</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-37.494064015838703</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B582-4CF0-A659-ADEDBCA71402}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1186102511"/>
+        <c:axId val="1184970735"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1186102511"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Predicted Reaction rate</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1184970735"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1184970735"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="800"/>
+                  <a:t>PT Partial pressure of Toluene mm Hg</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="3.0555512584502575E-2"/>
+              <c:y val="0.17694245192644689"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1186102511"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>catalyticReactor!$V$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Predicted Reaction rate</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>catalyticReactor!$AI$6:$AI$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>catalyticReactor!$AJ$6:$AJ$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>24.789415914938701</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25.070687843263698</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25.349528692446398</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25.625903299319098</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25.899782638695001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>26.1711450339103</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>26.439977744125699</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>26.7062790472947</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>26.970060973944602</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>27.231352893448801</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2E79-4B22-828C-76C22667E9B1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1186102511"/>
+        <c:axId val="1184970735"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1186102511"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Predicted Reaction rate</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1184970735"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1184970735"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="800"/>
+                  <a:t>PB Partial pressure of Benzene mm Hg</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="3.0555512584502575E-2"/>
+              <c:y val="0.17694245192644689"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1186102511"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2544,6 +4045,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -3060,20 +4681,1568 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>9524</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>95249</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>2019299</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>590549</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3100,1662 +6269,119 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>1495425</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AE01776-CC7D-CEC5-9D9D-47F6FA1C2968}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BC2F509-F302-4D72-B4CF-BDCDD7FBC232}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EDC4130-D8FE-4015-AB77-0552CD6B1CC0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="bioReactor"/>
-      <sheetName val="catalyticReactor"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="5">
-          <cell r="H5" t="str">
-            <v>RT Reaction rate 10-10 mol toluene n/g cat. Sec</v>
-          </cell>
-          <cell r="I5" t="str">
-            <v>Predicted Reaction rate</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="D6">
-            <v>1</v>
-          </cell>
-          <cell r="H6">
-            <v>566.34</v>
-          </cell>
-          <cell r="I6">
-            <v>564.88409737519203</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="D7">
-            <v>2</v>
-          </cell>
-          <cell r="H7">
-            <v>296.3</v>
-          </cell>
-          <cell r="I7">
-            <v>294.65913166944102</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="D8">
-            <v>3</v>
-          </cell>
-          <cell r="H8">
-            <v>333.16</v>
-          </cell>
-          <cell r="I8">
-            <v>331.649071565366</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="D9">
-            <v>4</v>
-          </cell>
-          <cell r="H9">
-            <v>146.29</v>
-          </cell>
-          <cell r="I9">
-            <v>141.27850346862601</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="D10">
-            <v>5</v>
-          </cell>
-          <cell r="H10">
-            <v>205.58</v>
-          </cell>
-          <cell r="I10">
-            <v>204.77732247556901</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="D11">
-            <v>6</v>
-          </cell>
-          <cell r="H11">
-            <v>908.65</v>
-          </cell>
-          <cell r="I11">
-            <v>908.40471378571499</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="D12">
-            <v>7</v>
-          </cell>
-          <cell r="H12">
-            <v>196.03</v>
-          </cell>
-          <cell r="I12">
-            <v>195.42264146809401</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="D13">
-            <v>8</v>
-          </cell>
-          <cell r="H13">
-            <v>100.96</v>
-          </cell>
-          <cell r="I13">
-            <v>101.020717417987</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="D14">
-            <v>9</v>
-          </cell>
-          <cell r="H14">
-            <v>76.66</v>
-          </cell>
-          <cell r="I14">
-            <v>76.383328609388499</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="D15">
-            <v>10</v>
-          </cell>
-          <cell r="H15">
-            <v>80.510000000000005</v>
-          </cell>
-          <cell r="I15">
-            <v>80.751686564334804</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="D16">
-            <v>11</v>
-          </cell>
-          <cell r="H16">
-            <v>28.75</v>
-          </cell>
-          <cell r="I16">
-            <v>29.157882994210802</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="D17">
-            <v>12</v>
-          </cell>
-          <cell r="H17">
-            <v>165.54</v>
-          </cell>
-          <cell r="I17">
-            <v>163.885963973972</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="D18">
-            <v>13</v>
-          </cell>
-          <cell r="H18">
-            <v>228.26</v>
-          </cell>
-          <cell r="I18">
-            <v>227.766662465048</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="D19">
-            <v>14</v>
-          </cell>
-          <cell r="H19">
-            <v>73.41</v>
-          </cell>
-          <cell r="I19">
-            <v>74.519852634571905</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="D20">
-            <v>15</v>
-          </cell>
-          <cell r="H20">
-            <v>299.69</v>
-          </cell>
-          <cell r="I20">
-            <v>301.15623195797701</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="D21">
-            <v>16</v>
-          </cell>
-          <cell r="H21">
-            <v>590.72</v>
-          </cell>
-          <cell r="I21">
-            <v>591.54936900853295</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="D22">
-            <v>17</v>
-          </cell>
-          <cell r="H22">
-            <v>319.57</v>
-          </cell>
-          <cell r="I22">
-            <v>319.51612143215499</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="D23">
-            <v>18</v>
-          </cell>
-          <cell r="H23">
-            <v>11.58</v>
-          </cell>
-          <cell r="I23">
-            <v>5.1058652406527596</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="D24">
-            <v>19</v>
-          </cell>
-          <cell r="H24">
-            <v>23.16</v>
-          </cell>
-          <cell r="I24">
-            <v>22.6935071323019</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="D25">
-            <v>20</v>
-          </cell>
-          <cell r="H25">
-            <v>72.819999999999993</v>
-          </cell>
-          <cell r="I25">
-            <v>72.294116898516705</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="D26">
-            <v>21</v>
-          </cell>
-          <cell r="H26">
-            <v>635.9</v>
-          </cell>
-          <cell r="I26">
-            <v>638.07682983489201</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="D27">
-            <v>22</v>
-          </cell>
-          <cell r="H27">
-            <v>259.26</v>
-          </cell>
-          <cell r="I27">
-            <v>259.99198232019103</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="D28">
-            <v>23</v>
-          </cell>
-          <cell r="H28">
-            <v>58.52</v>
-          </cell>
-          <cell r="I28">
-            <v>59.323580111450902</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="D29">
-            <v>24</v>
-          </cell>
-          <cell r="H29">
-            <v>59.07</v>
-          </cell>
-          <cell r="I29">
-            <v>58.263326004404398</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="D30">
-            <v>25</v>
-          </cell>
-          <cell r="H30">
-            <v>180.26</v>
-          </cell>
-          <cell r="I30">
-            <v>179.764496601031</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="D31">
-            <v>26</v>
-          </cell>
-          <cell r="H31">
-            <v>141.88999999999999</v>
-          </cell>
-          <cell r="I31">
-            <v>140.97184690169499</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="D32">
-            <v>27</v>
-          </cell>
-          <cell r="H32">
-            <v>213.63</v>
-          </cell>
-          <cell r="I32">
-            <v>212.91096964260399</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="D33">
-            <v>28</v>
-          </cell>
-          <cell r="H33">
-            <v>170.99</v>
-          </cell>
-          <cell r="I33">
-            <v>171.114997927649</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="D34">
-            <v>29</v>
-          </cell>
-          <cell r="H34">
-            <v>39.72</v>
-          </cell>
-          <cell r="I34">
-            <v>37.286302028036403</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="D35">
-            <v>30</v>
-          </cell>
-          <cell r="H35">
-            <v>256.36</v>
-          </cell>
-          <cell r="I35">
-            <v>255.66660700858299</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="D36">
-            <v>31</v>
-          </cell>
-          <cell r="H36">
-            <v>113.27</v>
-          </cell>
-          <cell r="I36">
-            <v>113.530773741171</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="D37">
-            <v>32</v>
-          </cell>
-          <cell r="H37">
-            <v>235.37</v>
-          </cell>
-          <cell r="I37">
-            <v>234.80627311722</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="D38">
-            <v>33</v>
-          </cell>
-          <cell r="H38">
-            <v>562.22</v>
-          </cell>
-          <cell r="I38">
-            <v>562.00259317825305</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="D39">
-            <v>34</v>
-          </cell>
-          <cell r="H39">
-            <v>216.99</v>
-          </cell>
-          <cell r="I39">
-            <v>215.921530296768</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="D40">
-            <v>35</v>
-          </cell>
-          <cell r="H40">
-            <v>406.58</v>
-          </cell>
-          <cell r="I40">
-            <v>406.707293927607</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="D41">
-            <v>36</v>
-          </cell>
-          <cell r="H41">
-            <v>269.23</v>
-          </cell>
-          <cell r="I41">
-            <v>269.25740934047099</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="D42">
-            <v>37</v>
-          </cell>
-          <cell r="H42">
-            <v>261.48</v>
-          </cell>
-          <cell r="I42">
-            <v>261.27188873331198</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="D43">
-            <v>38</v>
-          </cell>
-          <cell r="H43">
-            <v>517.1</v>
-          </cell>
-          <cell r="I43">
-            <v>517.01554848128001</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="D44">
-            <v>39</v>
-          </cell>
-          <cell r="H44">
-            <v>69.48</v>
-          </cell>
-          <cell r="I44">
-            <v>71.0284350912234</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="D45">
-            <v>40</v>
-          </cell>
-          <cell r="H45">
-            <v>87.09</v>
-          </cell>
-          <cell r="I45">
-            <v>87.017590241824806</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="D46">
-            <v>41</v>
-          </cell>
-          <cell r="H46">
-            <v>105.04</v>
-          </cell>
-          <cell r="I46">
-            <v>104.968758694532</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="D47">
-            <v>42</v>
-          </cell>
-          <cell r="H47">
-            <v>464.94</v>
-          </cell>
-          <cell r="I47">
-            <v>465.16292558337199</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="D48">
-            <v>43</v>
-          </cell>
-          <cell r="H48">
-            <v>464.94</v>
-          </cell>
-          <cell r="I48">
-            <v>463.96921252106199</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="D49">
-            <v>44</v>
-          </cell>
-          <cell r="H49">
-            <v>216.63</v>
-          </cell>
-          <cell r="I49">
-            <v>216.500006111555</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="D50">
-            <v>45</v>
-          </cell>
-          <cell r="H50">
-            <v>47.07</v>
-          </cell>
-          <cell r="I50">
-            <v>47.837109142225103</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="D51">
-            <v>46</v>
-          </cell>
-          <cell r="H51">
-            <v>253.97</v>
-          </cell>
-          <cell r="I51">
-            <v>253.835819360822</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="D52">
-            <v>47</v>
-          </cell>
-          <cell r="H52">
-            <v>187.17</v>
-          </cell>
-          <cell r="I52">
-            <v>186.82186908200799</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="D53">
-            <v>48</v>
-          </cell>
-          <cell r="H53">
-            <v>348.37</v>
-          </cell>
-          <cell r="I53">
-            <v>350.55158685546701</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="D54">
-            <v>49</v>
-          </cell>
-          <cell r="H54">
-            <v>57.9</v>
-          </cell>
-          <cell r="I54">
-            <v>60.204997689807598</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="D55">
-            <v>50</v>
-          </cell>
-          <cell r="H55">
-            <v>187.41</v>
-          </cell>
-          <cell r="I55">
-            <v>186.989173461463</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="D56">
-            <v>51</v>
-          </cell>
-          <cell r="H56">
-            <v>116.04</v>
-          </cell>
-          <cell r="I56">
-            <v>116.780998553852</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="D57">
-            <v>52</v>
-          </cell>
-          <cell r="H57">
-            <v>53.78</v>
-          </cell>
-          <cell r="I57">
-            <v>53.340756073725501</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="D58">
-            <v>53</v>
-          </cell>
-          <cell r="H58">
-            <v>171.25</v>
-          </cell>
-          <cell r="I58">
-            <v>170.91224662561399</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="D59">
-            <v>54</v>
-          </cell>
-          <cell r="H59">
-            <v>46.31</v>
-          </cell>
-          <cell r="I59">
-            <v>45.6609164616412</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="D60">
-            <v>55</v>
-          </cell>
-          <cell r="H60">
-            <v>428.13</v>
-          </cell>
-          <cell r="I60">
-            <v>428.423612961716</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="D61">
-            <v>56</v>
-          </cell>
-          <cell r="H61">
-            <v>444.44</v>
-          </cell>
-          <cell r="I61">
-            <v>443.380626684606</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="D62">
-            <v>57</v>
-          </cell>
-          <cell r="H62">
-            <v>274.24</v>
-          </cell>
-          <cell r="I62">
-            <v>274.98102541435799</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="D63">
-            <v>58</v>
-          </cell>
-          <cell r="H63">
-            <v>278.14999999999998</v>
-          </cell>
-          <cell r="I63">
-            <v>277.87516376901698</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="D64">
-            <v>59</v>
-          </cell>
-          <cell r="H64">
-            <v>82.35</v>
-          </cell>
-          <cell r="I64">
-            <v>83.892339115843001</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="D65">
-            <v>60</v>
-          </cell>
-          <cell r="H65">
-            <v>116.99</v>
-          </cell>
-          <cell r="I65">
-            <v>116.731859203886</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="D66">
-            <v>61</v>
-          </cell>
-          <cell r="H66">
-            <v>149.5</v>
-          </cell>
-          <cell r="I66">
-            <v>150.23149883152701</v>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="D67">
-            <v>62</v>
-          </cell>
-          <cell r="H67">
-            <v>416.53</v>
-          </cell>
-          <cell r="I67">
-            <v>416.78868800985401</v>
-          </cell>
-        </row>
-        <row r="68">
-          <cell r="D68">
-            <v>63</v>
-          </cell>
-          <cell r="H68">
-            <v>719.53</v>
-          </cell>
-          <cell r="I68">
-            <v>719.94044428004997</v>
-          </cell>
-        </row>
-        <row r="69">
-          <cell r="D69">
-            <v>64</v>
-          </cell>
-          <cell r="H69">
-            <v>329.09</v>
-          </cell>
-          <cell r="I69">
-            <v>329.60550202363999</v>
-          </cell>
-        </row>
-        <row r="70">
-          <cell r="D70">
-            <v>65</v>
-          </cell>
-          <cell r="H70">
-            <v>528.97</v>
-          </cell>
-          <cell r="I70">
-            <v>529.41967678544802</v>
-          </cell>
-        </row>
-        <row r="71">
-          <cell r="D71">
-            <v>66</v>
-          </cell>
-          <cell r="H71">
-            <v>799.37</v>
-          </cell>
-          <cell r="I71">
-            <v>799.54417823632002</v>
-          </cell>
-        </row>
-        <row r="72">
-          <cell r="D72">
-            <v>67</v>
-          </cell>
-          <cell r="H72">
-            <v>86.24</v>
-          </cell>
-          <cell r="I72">
-            <v>85.648957683590893</v>
-          </cell>
-        </row>
-        <row r="73">
-          <cell r="D73">
-            <v>68</v>
-          </cell>
-          <cell r="H73">
-            <v>533.04999999999995</v>
-          </cell>
-          <cell r="I73">
-            <v>532.94698192688895</v>
-          </cell>
-        </row>
-        <row r="74">
-          <cell r="D74">
-            <v>69</v>
-          </cell>
-          <cell r="H74">
-            <v>514.33000000000004</v>
-          </cell>
-          <cell r="I74">
-            <v>513.98232056748805</v>
-          </cell>
-        </row>
-        <row r="75">
-          <cell r="D75">
-            <v>70</v>
-          </cell>
-          <cell r="H75">
-            <v>278.14999999999998</v>
-          </cell>
-          <cell r="I75">
-            <v>277.87516376901698</v>
-          </cell>
-        </row>
-        <row r="76">
-          <cell r="D76">
-            <v>71</v>
-          </cell>
-          <cell r="H76">
-            <v>98.77</v>
-          </cell>
-          <cell r="I76">
-            <v>98.935236368746303</v>
-          </cell>
-        </row>
-        <row r="77">
-          <cell r="D77">
-            <v>72</v>
-          </cell>
-          <cell r="H77">
-            <v>120.9</v>
-          </cell>
-          <cell r="I77">
-            <v>116.28742263873001</v>
-          </cell>
-        </row>
-        <row r="78">
-          <cell r="D78">
-            <v>73</v>
-          </cell>
-          <cell r="H78">
-            <v>151.62</v>
-          </cell>
-          <cell r="I78">
-            <v>151.04368275008699</v>
-          </cell>
-        </row>
-        <row r="79">
-          <cell r="D79">
-            <v>74</v>
-          </cell>
-          <cell r="H79">
-            <v>433.71</v>
-          </cell>
-          <cell r="I79">
-            <v>432.81149639617502</v>
-          </cell>
-        </row>
-        <row r="80">
-          <cell r="D80">
-            <v>75</v>
-          </cell>
-          <cell r="H80">
-            <v>408.4</v>
-          </cell>
-          <cell r="I80">
-            <v>406.39999142448198</v>
-          </cell>
-        </row>
-        <row r="81">
-          <cell r="D81">
-            <v>76</v>
-          </cell>
-          <cell r="H81">
-            <v>888.89</v>
-          </cell>
-          <cell r="I81">
-            <v>885.15994146031005</v>
-          </cell>
-        </row>
-        <row r="82">
-          <cell r="D82">
-            <v>77</v>
-          </cell>
-          <cell r="H82">
-            <v>227.3</v>
-          </cell>
-          <cell r="I82">
-            <v>229.026441873924</v>
-          </cell>
-        </row>
-        <row r="83">
-          <cell r="D83">
-            <v>78</v>
-          </cell>
-          <cell r="H83">
-            <v>175.37</v>
-          </cell>
-          <cell r="I83">
-            <v>175.82966353497901</v>
-          </cell>
-        </row>
-        <row r="84">
-          <cell r="D84">
-            <v>79</v>
-          </cell>
-          <cell r="H84">
-            <v>404.33</v>
-          </cell>
-          <cell r="I84">
-            <v>405.796262553833</v>
-          </cell>
-        </row>
-        <row r="85">
-          <cell r="D85">
-            <v>80</v>
-          </cell>
-          <cell r="H85">
-            <v>214.16</v>
-          </cell>
-          <cell r="I85">
-            <v>213.17000166531801</v>
-          </cell>
-        </row>
-        <row r="86">
-          <cell r="D86">
-            <v>81</v>
-          </cell>
-          <cell r="H86">
-            <v>571.42999999999995</v>
-          </cell>
-          <cell r="I86">
-            <v>573.22673530627799</v>
-          </cell>
-        </row>
-        <row r="87">
-          <cell r="D87">
-            <v>82</v>
-          </cell>
-          <cell r="H87">
-            <v>634.55999999999995</v>
-          </cell>
-          <cell r="I87">
-            <v>636.28031274292402</v>
-          </cell>
-        </row>
-        <row r="88">
-          <cell r="D88">
-            <v>83</v>
-          </cell>
-          <cell r="H88">
-            <v>832.86</v>
-          </cell>
-          <cell r="I88">
-            <v>830.93167719159999</v>
-          </cell>
-        </row>
-        <row r="89">
-          <cell r="D89">
-            <v>84</v>
-          </cell>
-          <cell r="H89">
-            <v>138.84</v>
-          </cell>
-          <cell r="I89">
-            <v>138.582386124279</v>
-          </cell>
-        </row>
-        <row r="90">
-          <cell r="D90">
-            <v>85</v>
-          </cell>
-          <cell r="H90">
-            <v>33.69</v>
-          </cell>
-          <cell r="I90">
-            <v>32.642151980739897</v>
-          </cell>
-        </row>
-        <row r="91">
-          <cell r="D91">
-            <v>86</v>
-          </cell>
-          <cell r="H91">
-            <v>523.36</v>
-          </cell>
-          <cell r="I91">
-            <v>519.94000861859502</v>
-          </cell>
-        </row>
-        <row r="92">
-          <cell r="D92">
-            <v>87</v>
-          </cell>
-          <cell r="H92">
-            <v>598.02</v>
-          </cell>
-          <cell r="I92">
-            <v>599.43395476963303</v>
-          </cell>
-        </row>
-        <row r="93">
-          <cell r="D93">
-            <v>88</v>
-          </cell>
-          <cell r="H93">
-            <v>363.37</v>
-          </cell>
-          <cell r="I93">
-            <v>364.88222830754199</v>
-          </cell>
-        </row>
-        <row r="94">
-          <cell r="D94">
-            <v>89</v>
-          </cell>
-          <cell r="H94">
-            <v>113.27</v>
-          </cell>
-          <cell r="I94">
-            <v>113.530773741171</v>
-          </cell>
-        </row>
-        <row r="95">
-          <cell r="D95">
-            <v>90</v>
-          </cell>
-          <cell r="H95">
-            <v>150.13</v>
-          </cell>
-          <cell r="I95">
-            <v>149.45541108662499</v>
-          </cell>
-        </row>
-        <row r="96">
-          <cell r="D96">
-            <v>91</v>
-          </cell>
-          <cell r="H96">
-            <v>204.59</v>
-          </cell>
-          <cell r="I96">
-            <v>205.396026031725</v>
-          </cell>
-        </row>
-        <row r="97">
-          <cell r="D97">
-            <v>92</v>
-          </cell>
-          <cell r="H97">
-            <v>31.75</v>
-          </cell>
-          <cell r="I97">
-            <v>30.090083770686501</v>
-          </cell>
-        </row>
-        <row r="98">
-          <cell r="D98">
-            <v>93</v>
-          </cell>
-          <cell r="H98">
-            <v>96.55</v>
-          </cell>
-          <cell r="I98">
-            <v>96.308975455804202</v>
-          </cell>
-        </row>
-        <row r="99">
-          <cell r="D99">
-            <v>94</v>
-          </cell>
-          <cell r="H99">
-            <v>568.08000000000004</v>
-          </cell>
-          <cell r="I99">
-            <v>568.60726100160798</v>
-          </cell>
-        </row>
-        <row r="100">
-          <cell r="D100">
-            <v>95</v>
-          </cell>
-          <cell r="H100">
-            <v>471.15</v>
-          </cell>
-          <cell r="I100">
-            <v>470.94745518853603</v>
-          </cell>
-        </row>
-        <row r="101">
-          <cell r="D101">
-            <v>96</v>
-          </cell>
-          <cell r="H101">
-            <v>356.94</v>
-          </cell>
-          <cell r="I101">
-            <v>355.54268167792497</v>
-          </cell>
-        </row>
-        <row r="102">
-          <cell r="D102">
-            <v>97</v>
-          </cell>
-          <cell r="H102">
-            <v>326.72000000000003</v>
-          </cell>
-          <cell r="I102">
-            <v>325.442513248296</v>
-          </cell>
-        </row>
-        <row r="103">
-          <cell r="D103">
-            <v>98</v>
-          </cell>
-          <cell r="H103">
-            <v>29.26</v>
-          </cell>
-          <cell r="I103">
-            <v>29.435138208001302</v>
-          </cell>
-        </row>
-        <row r="104">
-          <cell r="D104">
-            <v>99</v>
-          </cell>
-          <cell r="H104">
-            <v>23.16</v>
-          </cell>
-          <cell r="I104">
-            <v>22.6935071323019</v>
-          </cell>
-        </row>
-        <row r="105">
-          <cell r="D105">
-            <v>100</v>
-          </cell>
-          <cell r="H105">
-            <v>154.97999999999999</v>
-          </cell>
-          <cell r="I105">
-            <v>157.24714891088701</v>
-          </cell>
-        </row>
-        <row r="106">
-          <cell r="D106">
-            <v>101</v>
-          </cell>
-          <cell r="H106">
-            <v>83.9</v>
-          </cell>
-          <cell r="I106">
-            <v>84.034047653473806</v>
-          </cell>
-        </row>
-        <row r="107">
-          <cell r="D107">
-            <v>102</v>
-          </cell>
-          <cell r="H107">
-            <v>635.16</v>
-          </cell>
-          <cell r="I107">
-            <v>636.94933126810497</v>
-          </cell>
-        </row>
-        <row r="108">
-          <cell r="D108">
-            <v>103</v>
-          </cell>
-          <cell r="H108">
-            <v>142.78</v>
-          </cell>
-          <cell r="I108">
-            <v>142.22359576213401</v>
-          </cell>
-        </row>
-        <row r="109">
-          <cell r="D109">
-            <v>104</v>
-          </cell>
-          <cell r="H109">
-            <v>151.62</v>
-          </cell>
-          <cell r="I109">
-            <v>151.04368275008699</v>
-          </cell>
-        </row>
-        <row r="110">
-          <cell r="D110">
-            <v>105</v>
-          </cell>
-          <cell r="H110">
-            <v>145.63999999999999</v>
-          </cell>
-          <cell r="I110">
-            <v>146.22614909276601</v>
-          </cell>
-        </row>
-        <row r="111">
-          <cell r="D111">
-            <v>106</v>
-          </cell>
-          <cell r="H111">
-            <v>625.70000000000005</v>
-          </cell>
-          <cell r="I111">
-            <v>625.21206303692304</v>
-          </cell>
-        </row>
-        <row r="112">
-          <cell r="D112">
-            <v>107</v>
-          </cell>
-          <cell r="H112">
-            <v>635.16</v>
-          </cell>
-          <cell r="I112">
-            <v>636.94933126810497</v>
-          </cell>
-        </row>
-        <row r="113">
-          <cell r="D113">
-            <v>108</v>
-          </cell>
-          <cell r="H113">
-            <v>290.11</v>
-          </cell>
-          <cell r="I113">
-            <v>290.71171143387397</v>
-          </cell>
-        </row>
-        <row r="114">
-          <cell r="D114">
-            <v>109</v>
-          </cell>
-          <cell r="H114">
-            <v>101.08</v>
-          </cell>
-          <cell r="I114">
-            <v>105.272273605645</v>
-          </cell>
-        </row>
-        <row r="115">
-          <cell r="D115">
-            <v>110</v>
-          </cell>
-          <cell r="H115">
-            <v>562.25</v>
-          </cell>
-          <cell r="I115">
-            <v>562.44789269607804</v>
-          </cell>
-        </row>
-        <row r="116">
-          <cell r="D116">
-            <v>111</v>
-          </cell>
-          <cell r="H116">
-            <v>571.42999999999995</v>
-          </cell>
-          <cell r="I116">
-            <v>573.22673530627799</v>
-          </cell>
-        </row>
-        <row r="117">
-          <cell r="D117">
-            <v>112</v>
-          </cell>
-          <cell r="H117">
-            <v>555.30999999999995</v>
-          </cell>
-          <cell r="I117">
-            <v>554.29942496450599</v>
-          </cell>
-        </row>
-        <row r="118">
-          <cell r="D118">
-            <v>113</v>
-          </cell>
-          <cell r="H118">
-            <v>64.64</v>
-          </cell>
-          <cell r="I118">
-            <v>65.484561086130398</v>
-          </cell>
-        </row>
-        <row r="119">
-          <cell r="D119">
-            <v>114</v>
-          </cell>
-          <cell r="H119">
-            <v>49.01</v>
-          </cell>
-          <cell r="I119">
-            <v>48.718687144057903</v>
-          </cell>
-        </row>
-        <row r="120">
-          <cell r="D120">
-            <v>115</v>
-          </cell>
-          <cell r="H120">
-            <v>124.78</v>
-          </cell>
-          <cell r="I120">
-            <v>124.005174467221</v>
-          </cell>
-        </row>
-        <row r="121">
-          <cell r="D121">
-            <v>116</v>
-          </cell>
-          <cell r="H121">
-            <v>222.12</v>
-          </cell>
-          <cell r="I121">
-            <v>223.85189487944999</v>
-          </cell>
-        </row>
-        <row r="122">
-          <cell r="D122">
-            <v>117</v>
-          </cell>
-          <cell r="H122">
-            <v>56.68</v>
-          </cell>
-          <cell r="I122">
-            <v>56.505211408262902</v>
-          </cell>
-        </row>
-        <row r="123">
-          <cell r="D123">
-            <v>118</v>
-          </cell>
-          <cell r="H123">
-            <v>232.09</v>
-          </cell>
-          <cell r="I123">
-            <v>233.230889966028</v>
-          </cell>
-        </row>
-        <row r="124">
-          <cell r="D124">
-            <v>119</v>
-          </cell>
-          <cell r="H124">
-            <v>464.94</v>
-          </cell>
-          <cell r="I124">
-            <v>465.16292558337199</v>
-          </cell>
-        </row>
-        <row r="125">
-          <cell r="D125">
-            <v>120</v>
-          </cell>
-          <cell r="H125">
-            <v>187.17</v>
-          </cell>
-          <cell r="I125">
-            <v>186.82186908200799</v>
-          </cell>
-        </row>
-        <row r="126">
-          <cell r="D126">
-            <v>121</v>
-          </cell>
-          <cell r="H126">
-            <v>516.61</v>
-          </cell>
-          <cell r="I126">
-            <v>514.94790084515205</v>
-          </cell>
-        </row>
-        <row r="127">
-          <cell r="D127">
-            <v>122</v>
-          </cell>
-          <cell r="H127">
-            <v>350.73</v>
-          </cell>
-          <cell r="I127">
-            <v>350.51741256359497</v>
-          </cell>
-        </row>
-        <row r="128">
-          <cell r="D128">
-            <v>123</v>
-          </cell>
-          <cell r="H128">
-            <v>330.5</v>
-          </cell>
-          <cell r="I128">
-            <v>329.81887214228198</v>
-          </cell>
-        </row>
-        <row r="129">
-          <cell r="D129">
-            <v>124</v>
-          </cell>
-          <cell r="H129">
-            <v>541.59</v>
-          </cell>
-          <cell r="I129">
-            <v>541.74002512988102</v>
-          </cell>
-        </row>
-        <row r="130">
-          <cell r="D130">
-            <v>125</v>
-          </cell>
-          <cell r="H130">
-            <v>252.45</v>
-          </cell>
-          <cell r="I130">
-            <v>252.981338882221</v>
-          </cell>
-        </row>
-        <row r="131">
-          <cell r="D131">
-            <v>126</v>
-          </cell>
-          <cell r="H131">
-            <v>67.39</v>
-          </cell>
-          <cell r="I131">
-            <v>68.409141277609194</v>
-          </cell>
-        </row>
-        <row r="132">
-          <cell r="D132">
-            <v>127</v>
-          </cell>
-          <cell r="H132">
-            <v>453.44</v>
-          </cell>
-          <cell r="I132">
-            <v>452.89868231127798</v>
-          </cell>
-        </row>
-        <row r="133">
-          <cell r="D133">
-            <v>128</v>
-          </cell>
-          <cell r="H133">
-            <v>37.53</v>
-          </cell>
-          <cell r="I133">
-            <v>38.240813872505399</v>
-          </cell>
-        </row>
-        <row r="134">
-          <cell r="D134">
-            <v>129</v>
-          </cell>
-          <cell r="H134">
-            <v>86.24</v>
-          </cell>
-          <cell r="I134">
-            <v>85.648957683590893</v>
-          </cell>
-        </row>
-        <row r="135">
-          <cell r="D135">
-            <v>130</v>
-          </cell>
-          <cell r="H135">
-            <v>148.15</v>
-          </cell>
-          <cell r="I135">
-            <v>147.178544682612</v>
-          </cell>
-        </row>
-        <row r="136">
-          <cell r="D136">
-            <v>131</v>
-          </cell>
-          <cell r="H136">
-            <v>525.19000000000005</v>
-          </cell>
-          <cell r="I136">
-            <v>525.67406449202997</v>
-          </cell>
-        </row>
-        <row r="137">
-          <cell r="D137">
-            <v>132</v>
-          </cell>
-          <cell r="H137">
-            <v>673.08</v>
-          </cell>
-          <cell r="I137">
-            <v>673.10592375637702</v>
-          </cell>
-        </row>
-        <row r="138">
-          <cell r="D138">
-            <v>133</v>
-          </cell>
-          <cell r="H138">
-            <v>54.85</v>
-          </cell>
-          <cell r="I138">
-            <v>54.336503218953503</v>
-          </cell>
-        </row>
-        <row r="139">
-          <cell r="D139">
-            <v>134</v>
-          </cell>
-          <cell r="H139">
-            <v>529.16</v>
-          </cell>
-          <cell r="I139">
-            <v>529.98095746282604</v>
-          </cell>
-        </row>
-        <row r="140">
-          <cell r="D140">
-            <v>135</v>
-          </cell>
-          <cell r="H140">
-            <v>138.84</v>
-          </cell>
-          <cell r="I140">
-            <v>138.582386124279</v>
-          </cell>
-        </row>
-        <row r="141">
-          <cell r="D141">
-            <v>136</v>
-          </cell>
-          <cell r="H141">
-            <v>613.78</v>
-          </cell>
-          <cell r="I141">
-            <v>614.50608096145504</v>
-          </cell>
-        </row>
-        <row r="142">
-          <cell r="D142">
-            <v>137</v>
-          </cell>
-          <cell r="H142">
-            <v>899.29</v>
-          </cell>
-          <cell r="I142">
-            <v>899.01566197865702</v>
-          </cell>
-        </row>
-        <row r="143">
-          <cell r="D143">
-            <v>138</v>
-          </cell>
-          <cell r="H143">
-            <v>590.72</v>
-          </cell>
-          <cell r="I143">
-            <v>591.54936900853295</v>
-          </cell>
-        </row>
-        <row r="144">
-          <cell r="D144">
-            <v>139</v>
-          </cell>
-          <cell r="H144">
-            <v>940.86</v>
-          </cell>
-          <cell r="I144">
-            <v>940.16307355094602</v>
-          </cell>
-        </row>
-        <row r="145">
-          <cell r="D145">
-            <v>140</v>
-          </cell>
-          <cell r="H145">
-            <v>336.54</v>
-          </cell>
-          <cell r="I145">
-            <v>335.987019739223</v>
-          </cell>
-        </row>
-        <row r="146">
-          <cell r="D146">
-            <v>141</v>
-          </cell>
-          <cell r="H146">
-            <v>376.2</v>
-          </cell>
-          <cell r="I146">
-            <v>375.63629956778698</v>
-          </cell>
-        </row>
-        <row r="147">
-          <cell r="D147">
-            <v>142</v>
-          </cell>
-          <cell r="H147">
-            <v>613.78</v>
-          </cell>
-          <cell r="I147">
-            <v>614.50608096145504</v>
-          </cell>
-        </row>
-        <row r="148">
-          <cell r="D148">
-            <v>143</v>
-          </cell>
-          <cell r="H148">
-            <v>229.82</v>
-          </cell>
-          <cell r="I148">
-            <v>229.840437701631</v>
-          </cell>
-        </row>
-        <row r="149">
-          <cell r="D149">
-            <v>144</v>
-          </cell>
-          <cell r="H149">
-            <v>161.33000000000001</v>
-          </cell>
-          <cell r="I149">
-            <v>162.031222875098</v>
-          </cell>
-        </row>
-        <row r="150">
-          <cell r="D150">
-            <v>145</v>
-          </cell>
-          <cell r="H150">
-            <v>264.48</v>
-          </cell>
-          <cell r="I150">
-            <v>265.19395388430002</v>
-          </cell>
-        </row>
-        <row r="151">
-          <cell r="D151">
-            <v>146</v>
-          </cell>
-          <cell r="H151">
-            <v>619.92999999999995</v>
-          </cell>
-          <cell r="I151">
-            <v>619.71480204728005</v>
-          </cell>
-        </row>
-        <row r="152">
-          <cell r="D152">
-            <v>147</v>
-          </cell>
-          <cell r="H152">
-            <v>41.18</v>
-          </cell>
-          <cell r="I152">
-            <v>37.1420409266007</v>
-          </cell>
-        </row>
-        <row r="153">
-          <cell r="D153">
-            <v>148</v>
-          </cell>
-          <cell r="H153">
-            <v>181.69</v>
-          </cell>
-          <cell r="I153">
-            <v>181.803894195922</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5174,8 +6800,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41B56DEB-F96A-4789-8049-980C30EA3104}">
   <dimension ref="D5:AJ153"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P26" sqref="P26"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="N30" sqref="N30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
